--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52D6D3F-1AF5-4FF1-8DD2-CDE711BEEFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C3C5D9-32F7-4E8A-AD78-786F78141DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="잔업기록 양식" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>부서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,529 +942,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22146594-5562-410F-AE55-78CBE67C5C75}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="23" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="7"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="23" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="7">
         <v>1001</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>45383</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8">
         <v>1004</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>45384</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>1.5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C4" s="8">
         <v>1010</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>45384</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>3.5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C5" s="8">
         <v>1011</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>45356</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="8">
+      <c r="C6" s="8">
         <v>1012</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>45360</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C7" s="8">
         <v>1013</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>45364</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>3.8</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C8" s="8">
         <v>1016</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>45407</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>1.4</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>10030</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C9" s="8">
         <v>1017</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>45401</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>5.3</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>10030</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C10" s="8">
         <v>1021</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>45378</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>2.5</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="8">
+      <c r="C11" s="8">
         <v>1022</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>45352</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="8">
+      <c r="C12" s="8">
         <v>1026</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>45383</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>0.5</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="8">
+      <c r="C13" s="8">
         <v>1027</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>45382</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>0.6</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10050</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C14" s="8">
         <v>1028</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>45391</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>0.12</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10050</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="8">
+      <c r="C15" s="8">
         <v>1030</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>45404</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>2.4</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>10050</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="8">
+      <c r="C16" s="8">
         <v>1031</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>45368</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>1.4</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>10060</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="8">
+      <c r="C17" s="8">
         <v>1032</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>45399</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>3.6</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>10070</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="8">
+      <c r="C18" s="8">
         <v>1035</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>45373</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>2.1</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>10070</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="8">
+      <c r="C19" s="8">
         <v>1038</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>45393</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="10">
         <v>3</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1478,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A3FA42-BE99-47D5-99CD-9CC7F100A5FB}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -2045,7 +2103,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C3C5D9-32F7-4E8A-AD78-786F78141DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F38AE8-4961-4BEF-BB09-F01B0BC64892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
   <si>
     <t>부서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,9 +602,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -942,21 +939,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22146594-5562-410F-AE55-78CBE67C5C75}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="23" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="7" customWidth="1"/>
+    <col min="2" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="9"/>
+    <col min="9" max="9" width="23" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -964,567 +961,1119 @@
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>10010</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1001</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>45383</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>10010</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1004</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>45384</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1.5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>10010</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1010</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>45384</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>3.5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>10010</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1011</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45356</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>2</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>10010</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1012</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>45360</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>10020</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1013</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>45364</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>3.8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>10020</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1016</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>45407</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1.4</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>10030</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1017</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>45401</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>5.3</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>10030</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1021</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>45378</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>2.5</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10040</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1022</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>45352</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10040</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1026</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>45383</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>0.5</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>10040</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1027</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>45382</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.6</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10050</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1028</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>45391</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0.12</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>10050</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1030</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>45404</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>2.4</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>10050</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>1031</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>45368</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>1.4</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>10060</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1032</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>45399</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>3.6</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>10070</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>1035</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>45373</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>2.1</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>10070</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1038</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>45393</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>3</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1001</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45378</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45352</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1010</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45383</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1011</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45382</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1012</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45391</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1013</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45404</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45368</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45399</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1021</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45373</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1022</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45393</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1026</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45383</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1027</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4">
+        <v>45384</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1028</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="4">
+        <v>45384</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1030</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4">
+        <v>45356</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1031</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45360</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>10060</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1032</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45364</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1035</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45407</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4">
+        <v>45401</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="9">
+        <v>3</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1561,444 +2110,444 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>10010</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>10010</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>10010</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>10010</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>10010</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>10010</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>10010</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>10010</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>10010</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>10010</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>10010</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>1012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>10010</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>1013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>10020</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>1014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>10020</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>1015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>10020</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>1016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>10020</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>1017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2">
         <v>10030</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>1018</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>10030</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>1019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>10030</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>1020</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2">
         <v>10030</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1021</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="2">
         <v>10030</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>1022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>10040</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>1023</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>10040</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1024</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>10040</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>1025</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="2">
         <v>10040</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>1026</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2">
         <v>10040</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>1027</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2">
         <v>10040</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>1028</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2">
         <v>10050</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>1029</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
         <v>10050</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>1030</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="2">
         <v>10050</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>1031</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="2">
         <v>10050</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>1032</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
@@ -2009,10 +2558,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>1033</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
@@ -2023,10 +2572,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>1034</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2">
@@ -2037,7 +2586,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2051,7 +2600,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2065,7 +2614,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>1037</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2079,7 +2628,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>1038</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2108,94 +2657,94 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>10010</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>10020</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>10030</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>10040</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>10050</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>10060</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>10070</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
     </row>

--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F38AE8-4961-4BEF-BB09-F01B0BC64892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE4C02-7277-4B8D-B397-14F4F6799D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="138">
   <si>
     <t>부서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,7 +531,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -575,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,19 +610,25 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,53 +945,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22146594-5562-410F-AE55-78CBE67C5C75}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H22" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="23" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
+    <col min="2" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="9.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="23" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -993,118 +999,121 @@
       <c r="A2" s="3">
         <v>10010</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1001</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="4">
         <v>45383</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10010</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1004</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="4">
         <v>45384</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>1.5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10010</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1010</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="4">
         <v>45384</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>3.5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10010</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1011</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="4">
         <v>45356</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1112,118 +1121,121 @@
       <c r="A6" s="3">
         <v>10010</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1012</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="4">
         <v>45360</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10020</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1013</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="4">
         <v>45364</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>3.8</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10020</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1016</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="4">
         <v>45407</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>1.4</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10030</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1017</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="4">
         <v>45401</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <v>5.3</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1231,89 +1243,91 @@
       <c r="A10" s="3">
         <v>10030</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1021</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="4">
         <v>45378</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>2.5</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10040</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1022</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>45352</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10040</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1026</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="4">
         <v>45383</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <v>0.5</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1321,147 +1335,151 @@
       <c r="A13" s="3">
         <v>10040</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1027</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="4">
         <v>45382</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="11">
         <v>0.6</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10050</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1028</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="4">
         <v>45391</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10050</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1030</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="4">
         <v>45404</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="11">
         <v>2.4</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10050</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1031</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="4">
         <v>45368</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>1.4</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>10060</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>1032</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="4">
         <v>45399</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <v>3.6</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1469,176 +1487,181 @@
       <c r="A18" s="3">
         <v>10070</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1035</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="4">
         <v>45373</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="11">
         <v>2.1</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>10070</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>1038</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="4">
         <v>45393</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="11">
         <v>3</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>10010</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1001</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="4">
         <v>45378</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="11">
         <v>2</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>10010</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1004</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="4">
         <v>45352</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <v>1.5</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>10010</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1010</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="4">
         <v>45383</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
         <v>3.5</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10010</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1011</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="4">
         <v>45382</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <v>2</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1646,118 +1669,121 @@
       <c r="A24" s="3">
         <v>10010</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>1012</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E24" s="4">
         <v>45391</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>10020</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1013</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="4">
         <v>45404</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="11">
         <v>3.8</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>10020</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>1016</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="4">
         <v>45368</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="11">
         <v>1.4</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10030</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>1017</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="4">
         <v>45399</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="11">
         <v>5.3</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1765,89 +1791,91 @@
       <c r="A28" s="3">
         <v>10030</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>1021</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="4">
         <v>45373</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="11">
         <v>2.5</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10040</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1022</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="4">
         <v>45393</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>10040</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>1026</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="4">
         <v>45383</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="11">
         <v>0.5</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1855,147 +1883,151 @@
       <c r="A31" s="3">
         <v>10040</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>1027</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="4">
         <v>45384</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="11">
         <v>0.6</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10050</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>1028</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E32" s="4">
         <v>45384</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>10050</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>1030</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="4">
         <v>45356</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="11">
         <v>2.4</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>10050</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1031</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E34" s="4">
         <v>45360</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="11">
         <v>1.4</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>10060</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1032</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="4">
         <v>45364</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="11">
         <v>3.6</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2003,77 +2035,1157 @@
       <c r="A36" s="3">
         <v>10070</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1035</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E36" s="4">
         <v>45407</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="11">
         <v>2.1</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>10070</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>1038</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E37" s="4">
         <v>45401</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="11">
         <v>3</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="4"/>
+      <c r="A38" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45383</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="4"/>
+      <c r="A39" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1004</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45382</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G40" s="4"/>
+      <c r="A40" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1010</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45391</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G41" s="4"/>
+      <c r="A41" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1011</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45404</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G42" s="4"/>
+      <c r="A42" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1012</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45368</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G43" s="4"/>
+      <c r="A43" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1013</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45399</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1016</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45373</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1017</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45393</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45383</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1022</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45384</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1026</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45384</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1027</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45356</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1028</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="4">
+        <v>45360</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1030</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4">
+        <v>45364</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1031</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45407</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>10060</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1032</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45401</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="11">
+        <v>3</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1035</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4">
+        <v>45383</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="11">
+        <v>2</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1038</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="4">
+        <v>45384</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="4">
+        <v>45384</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1004</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45356</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="11">
+        <v>2</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1010</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="4">
+        <v>45360</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1011</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="4">
+        <v>45364</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1012</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="4">
+        <v>45407</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1013</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="4">
+        <v>45401</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1016</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="4">
+        <v>45378</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1017</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="4">
+        <v>45352</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="4">
+        <v>45383</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1022</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="4">
+        <v>45382</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1026</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="4">
+        <v>45391</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1027</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="4">
+        <v>45404</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1028</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="4">
+        <v>45368</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1030</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="4">
+        <v>45399</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1031</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="4">
+        <v>45373</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>10060</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1032</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="4">
+        <v>45393</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="11">
+        <v>3</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1035</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="4">
+        <v>45378</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="11">
+        <v>2</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>10070</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1038</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="4">
+        <v>45352</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE4C02-7277-4B8D-B397-14F4F6799D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CFD789-C872-4771-92CB-ECF5986F5425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
@@ -531,7 +531,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -625,10 +625,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,10 +948,10 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H1:H1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="4" width="9" style="5"/>
@@ -963,7 +963,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>10010</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10010</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10010</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10010</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10010</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10020</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10020</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10030</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10030</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10040</v>
       </c>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10040</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10040</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10050</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10050</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10050</v>
       </c>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>10060</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>10070</v>
       </c>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>10070</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>10010</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>10010</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>10010</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10010</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>10010</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>10020</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>10020</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10030</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10030</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10040</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>10040</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>10040</v>
       </c>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10050</v>
       </c>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>10050</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>10050</v>
       </c>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>10060</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>10070</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>10070</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10010</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>10010</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>10010</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>10010</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>10010</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>10020</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>10020</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>10030</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>10030</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>10040</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>10040</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>10040</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>10050</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>10050</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>10050</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>10060</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>10070</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>10070</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>10010</v>
       </c>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>10010</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>10010</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>10010</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>10010</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>10020</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>10020</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>10030</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10030</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>10040</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>10040</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>10040</v>
       </c>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>10050</v>
       </c>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>10050</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>10050</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>10060</v>
       </c>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>10070</v>
       </c>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>10070</v>
       </c>

--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CFD789-C872-4771-92CB-ECF5986F5425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC910E-05E0-4620-A9E7-AE954C7082B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="143">
   <si>
     <t>부서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,26 @@
   </si>
   <si>
     <t>20:35</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,9 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -947,51 +964,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22146594-5562-410F-AE55-78CBE67C5C75}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="9.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="23" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="23" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -999,121 +1016,121 @@
       <c r="A2" s="3">
         <v>10010</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1001</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10010</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1004</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>1.5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10010</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1010</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>3.5</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10010</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1011</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="4">
-        <v>45356</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1121,121 +1138,121 @@
       <c r="A6" s="3">
         <v>10010</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1012</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="4">
-        <v>45360</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10020</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1013</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="4">
-        <v>45364</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>3.8</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10020</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1016</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="4">
-        <v>45407</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1.4</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10030</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1017</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="4">
-        <v>45401</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>5.3</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1243,91 +1260,91 @@
       <c r="A10" s="3">
         <v>10030</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1021</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="4">
-        <v>45378</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>2.5</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10040</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1022</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="4">
-        <v>45352</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10040</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1026</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>0.5</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1335,151 +1352,151 @@
       <c r="A13" s="3">
         <v>10040</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1027</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4">
-        <v>45382</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>0.6</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10050</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1028</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="4">
-        <v>45391</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.5</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10050</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1030</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="4">
-        <v>45404</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>2.4</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10050</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1031</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="4">
-        <v>45368</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1.4</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>10060</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1032</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="4">
-        <v>45399</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>3.6</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1487,181 +1504,181 @@
       <c r="A18" s="3">
         <v>10070</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>1035</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="4">
-        <v>45373</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>2.1</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>10070</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>1038</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="4">
-        <v>45393</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>3</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>10010</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>1001</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="4">
-        <v>45378</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>2</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>10010</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>1004</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="4">
-        <v>45352</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>1.5</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>10010</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>1010</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>3.5</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10010</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>1011</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="4">
-        <v>45382</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>2</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1669,121 +1686,121 @@
       <c r="A24" s="3">
         <v>10010</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>1012</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="4">
-        <v>45391</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>10020</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>1013</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="4">
-        <v>45404</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>3.8</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>10020</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1016</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="4">
-        <v>45368</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>1.4</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10030</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1017</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="4">
-        <v>45399</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>5.3</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1791,91 +1808,91 @@
       <c r="A28" s="3">
         <v>10030</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>1021</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="4">
-        <v>45373</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>2.5</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10040</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1022</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="4">
-        <v>45393</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>10040</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>1026</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>0.5</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1883,151 +1900,151 @@
       <c r="A31" s="3">
         <v>10040</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>1027</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>0.6</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10050</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>1028</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>0.5</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>10050</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>1030</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="4">
-        <v>45356</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>2.4</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>10050</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>1031</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="4">
-        <v>45360</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>1.4</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>10060</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>1032</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="4">
-        <v>45364</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <v>3.6</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2035,121 +2052,121 @@
       <c r="A36" s="3">
         <v>10070</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>1035</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="4">
-        <v>45407</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>2.1</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>10070</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>1038</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="4">
-        <v>45401</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>3</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10010</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>1001</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>3.5</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>10010</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>1004</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="4">
-        <v>45382</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>2</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2157,121 +2174,121 @@
       <c r="A40" s="3">
         <v>10010</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>1010</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="4">
-        <v>45391</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>10010</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>1011</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="4">
-        <v>45404</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>3.8</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>10010</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>1012</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="4">
-        <v>45368</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="E42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>1.4</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>10020</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>1013</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="4">
-        <v>45399</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <v>5.3</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2279,91 +2296,91 @@
       <c r="A44" s="3">
         <v>10020</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>1016</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="4">
-        <v>45373</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="E44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>2.5</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>10030</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>1017</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="4">
-        <v>45393</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="E45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>10030</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>1021</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="E46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>0.5</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2371,151 +2388,151 @@
       <c r="A47" s="3">
         <v>10040</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>1022</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>0.6</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>10040</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>1026</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>0.5</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>10040</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>1027</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="4">
-        <v>45356</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <v>2.4</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>10050</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>1028</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="4">
-        <v>45360</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="E50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="10">
         <v>1.4</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>10050</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>1030</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="4">
-        <v>45364</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <v>3.6</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2523,181 +2540,181 @@
       <c r="A52" s="3">
         <v>10050</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>1031</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="4">
-        <v>45407</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <v>2.1</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="9"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>10060</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>1032</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="4">
-        <v>45401</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="10">
         <v>3</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="9"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>10070</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>1035</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="10">
         <v>2</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J54" s="9"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>10070</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>1038</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="E55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="10">
         <v>1.5</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J55" s="9"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>10010</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>1001</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="4">
-        <v>45384</v>
-      </c>
-      <c r="F56" s="5" t="s">
+      <c r="E56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="10">
         <v>3.5</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="9"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>10010</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>1004</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="4">
-        <v>45356</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="E57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="10">
         <v>2</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2705,121 +2722,121 @@
       <c r="A58" s="3">
         <v>10010</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>1010</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="4">
-        <v>45360</v>
-      </c>
-      <c r="F58" s="5" t="s">
+      <c r="E58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="9"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>10010</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>1011</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="4">
-        <v>45364</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="10">
         <v>3.8</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J59" s="9"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>10010</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>1012</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="4">
-        <v>45407</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="E60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <v>1.4</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>10020</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>1013</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="4">
-        <v>45401</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <v>5.3</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2827,91 +2844,91 @@
       <c r="A62" s="3">
         <v>10020</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>1016</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="4">
-        <v>45378</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="10">
         <v>2.5</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J62" s="9"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>10030</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>1017</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="4">
-        <v>45352</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="E63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J63" s="9"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10030</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>1021</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="4">
-        <v>45383</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="E64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="10">
         <v>0.5</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2919,151 +2936,151 @@
       <c r="A65" s="3">
         <v>10040</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>1022</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="4">
-        <v>45382</v>
-      </c>
-      <c r="F65" s="5" t="s">
+      <c r="E65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="10">
         <v>0.6</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="9"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>10040</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>1026</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="4">
-        <v>45391</v>
-      </c>
-      <c r="F66" s="5" t="s">
+      <c r="E66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="10">
         <v>0.5</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J66" s="9"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>10040</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>1027</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="4">
-        <v>45404</v>
-      </c>
-      <c r="F67" s="5" t="s">
+      <c r="E67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <v>2.4</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J67" s="9"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>10050</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>1028</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="4">
-        <v>45368</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="E68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="10">
         <v>1.4</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J68" s="9"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>10050</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>1030</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="4">
-        <v>45399</v>
-      </c>
-      <c r="F69" s="5" t="s">
+      <c r="E69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="10">
         <v>3.6</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3071,121 +3088,121 @@
       <c r="A70" s="3">
         <v>10050</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>1031</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="4">
-        <v>45373</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="E70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="10">
         <v>2.1</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J70" s="9"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>10060</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>1032</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E71" s="4">
-        <v>45393</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="E71" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="10">
         <v>3</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J71" s="9"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>10070</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>1035</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="4">
-        <v>45378</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="E72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="10">
         <v>2</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J72" s="9"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>10070</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>1038</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="4">
-        <v>45352</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="E73" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="10">
         <v>1.5</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J73" s="9"/>
+      <c r="J73" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC910E-05E0-4620-A9E7-AE954C7082B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687E0B5-FF6E-469C-939B-0EB890D80EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="인사정보" sheetId="2" r:id="rId2"/>
     <sheet name="부서정보" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="150">
   <si>
     <t>부서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,29 @@
   <si>
     <t>2024-03-08</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
   </si>
 </sst>
 </file>
@@ -614,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,9 +653,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +666,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,53 +988,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22146594-5562-410F-AE55-78CBE67C5C75}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="9" style="11"/>
+    <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="9.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9" style="10"/>
+    <col min="8" max="8" width="9" style="9"/>
     <col min="9" max="9" width="23" style="4" customWidth="1"/>
     <col min="10" max="10" width="17.75" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1019,8 +1047,8 @@
       <c r="B2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4">
-        <v>1001</v>
+      <c r="C2" s="11">
+        <v>1009</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>78</v>
@@ -1034,13 +1062,13 @@
       <c r="G2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1049,8 +1077,8 @@
       <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="5">
-        <v>1004</v>
+      <c r="C3" s="11">
+        <v>1012</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>79</v>
@@ -1064,13 +1092,13 @@
       <c r="G3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1.5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1079,8 +1107,8 @@
       <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="5">
-        <v>1010</v>
+      <c r="C4" s="11">
+        <v>1017</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -1094,13 +1122,13 @@
       <c r="G4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>3.5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1109,8 +1137,8 @@
       <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="5">
-        <v>1011</v>
+      <c r="C5" s="11">
+        <v>1018</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>81</v>
@@ -1124,13 +1152,13 @@
       <c r="G5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>2</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1141,8 +1169,8 @@
       <c r="B6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="5">
-        <v>1012</v>
+      <c r="C6" s="11">
+        <v>1021</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>82</v>
@@ -1156,13 +1184,13 @@
       <c r="G6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1171,8 +1199,8 @@
       <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5">
-        <v>1013</v>
+      <c r="C7" s="11">
+        <v>1023</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>84</v>
@@ -1186,13 +1214,13 @@
       <c r="G7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>3.8</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1201,8 +1229,8 @@
       <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5">
-        <v>1016</v>
+      <c r="C8" s="11">
+        <v>1026</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>85</v>
@@ -1216,13 +1244,13 @@
       <c r="G8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1.4</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1231,8 +1259,8 @@
       <c r="B9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="5">
-        <v>1017</v>
+      <c r="C9" s="11">
+        <v>1028</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>87</v>
@@ -1246,13 +1274,13 @@
       <c r="G9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>5.3</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1263,8 +1291,8 @@
       <c r="B10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="5">
-        <v>1021</v>
+      <c r="C10" s="11">
+        <v>1032</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>88</v>
@@ -1278,13 +1306,13 @@
       <c r="G10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>2.5</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1293,8 +1321,8 @@
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="5">
-        <v>1022</v>
+      <c r="C11" s="11">
+        <v>1042</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>90</v>
@@ -1308,13 +1336,13 @@
       <c r="G11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1323,8 +1351,8 @@
       <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="5">
-        <v>1026</v>
+      <c r="C12" s="11">
+        <v>1046</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>91</v>
@@ -1338,13 +1366,13 @@
       <c r="G12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>0.5</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1355,8 +1383,8 @@
       <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="5">
-        <v>1027</v>
+      <c r="C13" s="11">
+        <v>1047</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>92</v>
@@ -1370,13 +1398,13 @@
       <c r="G13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.6</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -1385,8 +1413,8 @@
       <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="5">
-        <v>1028</v>
+      <c r="C14" s="11">
+        <v>1048</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>94</v>
@@ -1400,13 +1428,13 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0.5</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1415,90 +1443,90 @@
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="5">
-        <v>1030</v>
+      <c r="C15" s="11">
+        <v>1050</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>10050</v>
+        <v>10060</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1031</v>
+        <v>97</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1054</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>10060</v>
+        <v>10070</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1032</v>
+        <v>99</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1057</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -1507,58 +1535,58 @@
       <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="5">
-        <v>1035</v>
+      <c r="C18" s="11">
+        <v>1060</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>10070</v>
+        <v>10010</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1038</v>
+        <v>77</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1009</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="10">
-        <v>3</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1567,28 +1595,28 @@
       <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="4">
-        <v>1001</v>
+      <c r="C20" s="11">
+        <v>1012</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="10">
-        <v>2</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1597,28 +1625,28 @@
       <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5">
-        <v>1004</v>
+      <c r="C21" s="11">
+        <v>1017</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>141</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -1627,28 +1655,30 @@
       <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="5">
-        <v>1010</v>
+      <c r="C22" s="11">
+        <v>1018</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1657,60 +1687,58 @@
       <c r="B23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="5">
-        <v>1011</v>
+      <c r="C23" s="11">
+        <v>1021</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="10">
-        <v>2</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>10010</v>
+        <v>10020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1012</v>
+        <v>83</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1023</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="H24" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1719,58 +1747,60 @@
       <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="5">
-        <v>1013</v>
+      <c r="C25" s="11">
+        <v>1026</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1016</v>
+        <v>86</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1028</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1779,60 +1809,58 @@
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="5">
-        <v>1017</v>
+      <c r="C27" s="11">
+        <v>1032</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>141</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>10030</v>
+        <v>10040</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1021</v>
+        <v>89</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1042</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1841,28 +1869,30 @@
       <c r="B29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="5">
-        <v>1022</v>
+      <c r="C29" s="11">
+        <v>1046</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1871,60 +1901,58 @@
       <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="5">
-        <v>1026</v>
+      <c r="C30" s="11">
+        <v>1047</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>75</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>10040</v>
+        <v>10050</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1027</v>
+        <v>93</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1048</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -1933,180 +1961,182 @@
       <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="5">
-        <v>1028</v>
+      <c r="C32" s="11">
+        <v>1050</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>10050</v>
+        <v>10060</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1030</v>
+        <v>97</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1054</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>10050</v>
+        <v>10070</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1031</v>
+        <v>99</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1057</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>10060</v>
+        <v>10070</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1032</v>
+        <v>99</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1060</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H35" s="9">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>10070</v>
+        <v>10010</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1035</v>
+        <v>77</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1009</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="H36" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>10070</v>
+        <v>10010</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1038</v>
+        <v>77</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1012</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="10">
-        <v>3</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -2115,28 +2145,28 @@
       <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="4">
-        <v>1001</v>
+      <c r="C38" s="11">
+        <v>1017</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="H38" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -2145,30 +2175,28 @@
       <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="5">
-        <v>1004</v>
+      <c r="C39" s="11">
+        <v>1018</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>141</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" s="10">
-        <v>2</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H39" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -2177,212 +2205,212 @@
       <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="5">
-        <v>1010</v>
+      <c r="C40" s="11">
+        <v>1021</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>10010</v>
+        <v>10020</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1011</v>
+        <v>83</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1023</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H41" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>10010</v>
+        <v>10020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1012</v>
+        <v>83</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1026</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1013</v>
+        <v>86</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1028</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H43" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1016</v>
+        <v>86</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1032</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>10030</v>
+        <v>10040</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1017</v>
+        <v>89</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1042</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J45" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>10030</v>
+        <v>10040</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1021</v>
+        <v>89</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1046</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="10">
+        <v>127</v>
+      </c>
+      <c r="H46" s="9">
         <v>0.5</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="I46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -2391,88 +2419,90 @@
       <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="5">
-        <v>1022</v>
+      <c r="C47" s="11">
+        <v>1047</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I47" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>10040</v>
+        <v>10050</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1026</v>
+        <v>93</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1048</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J48" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>10040</v>
+        <v>10050</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1027</v>
+        <v>93</v>
+      </c>
+      <c r="C49" s="11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="H49" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -2481,180 +2511,180 @@
       <c r="B50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="5">
-        <v>1028</v>
+      <c r="C50" s="11">
+        <v>1050</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="H50" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>10050</v>
+        <v>10060</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1030</v>
+        <v>97</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1054</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H51" s="9">
+        <v>3</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>10050</v>
+        <v>10070</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1031</v>
+        <v>99</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1057</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J52" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>10060</v>
+        <v>10070</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1032</v>
+        <v>99</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1060</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="10">
-        <v>3</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>10070</v>
+        <v>10010</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1035</v>
+        <v>77</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1009</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="10">
-        <v>2</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="H54" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>10070</v>
+        <v>10010</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1038</v>
+        <v>77</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1012</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J55" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="H55" s="9">
+        <v>2</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
@@ -2663,28 +2693,28 @@
       <c r="B56" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="4">
-        <v>1001</v>
+      <c r="C56" s="11">
+        <v>1017</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J56" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="H56" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -2693,30 +2723,28 @@
       <c r="B57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="5">
-        <v>1004</v>
+      <c r="C57" s="11">
+        <v>1018</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="10">
-        <v>2</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H57" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
@@ -2725,212 +2753,212 @@
       <c r="B58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="5">
-        <v>1010</v>
+      <c r="C58" s="11">
+        <v>1021</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J58" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>10010</v>
+        <v>10020</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1011</v>
+        <v>83</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1023</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J59" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H59" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>10010</v>
+        <v>10020</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1012</v>
+        <v>83</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1026</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H60" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J60" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="H60" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1013</v>
+        <v>86</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1028</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H61" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H61" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1016</v>
+        <v>86</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1032</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J62" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>10030</v>
+        <v>10040</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1017</v>
+        <v>89</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1042</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J63" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>10030</v>
+        <v>10040</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="5">
-        <v>1021</v>
+        <v>89</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1046</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" s="10">
+        <v>127</v>
+      </c>
+      <c r="H64" s="9">
         <v>0.5</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="I64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -2939,270 +2967,178 @@
       <c r="B65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="5">
-        <v>1022</v>
+      <c r="C65" s="11">
+        <v>1047</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="8"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>10040</v>
+        <v>10050</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1026</v>
+        <v>93</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1048</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H66" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J66" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>10040</v>
+        <v>10050</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1027</v>
+        <v>93</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1050</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H67" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J67" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="H67" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>10050</v>
+        <v>10060</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1028</v>
+        <v>97</v>
+      </c>
+      <c r="C68" s="11">
+        <v>1054</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H68" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J68" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="H68" s="9">
+        <v>3</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>10050</v>
+        <v>10070</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1030</v>
+        <v>99</v>
+      </c>
+      <c r="C69" s="11">
+        <v>1057</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>10050</v>
+        <v>10070</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1031</v>
+        <v>99</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1060</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H70" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>10060</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1032</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="10">
-        <v>3</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>10070</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1035</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="10">
-        <v>2</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>10070</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1038</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H70" s="9">
         <v>1.5</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J73" s="8"/>
+      <c r="J70" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/overtime_v1.1/excel/upload.xlsx
+++ b/overtime_v1.1/excel/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\python project\overtime\overtime_v1.1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687E0B5-FF6E-469C-939B-0EB890D80EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE945C29-F83E-4F75-9599-31BC0AD198F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE17E090-B94E-4C76-AE8C-9E53932BC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="잔업기록 양식" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근무시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,6 +563,10 @@
   </si>
   <si>
     <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>잔업시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,12 +666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,15 +984,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22146594-5562-410F-AE55-78CBE67C5C75}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="9" style="11"/>
+    <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="9.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="4"/>
@@ -1010,12 +1004,12 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1031,13 +1025,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1045,28 +1039,28 @@
         <v>10010</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="11">
-        <v>1009</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H2" s="9">
         <v>2</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -1075,28 +1069,28 @@
         <v>10010</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="11">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2">
         <v>1012</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H3" s="9">
         <v>1.5</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -1105,28 +1099,28 @@
         <v>10010</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="11">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2">
         <v>1017</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H4" s="9">
         <v>3.5</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1135,31 +1129,31 @@
         <v>10010</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2">
         <v>1018</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H5" s="9">
         <v>2</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1167,28 +1161,28 @@
         <v>10010</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="11">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2">
         <v>1021</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="H6" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -1197,28 +1191,28 @@
         <v>10020</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="11">
-        <v>1023</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H7" s="9">
         <v>3.8</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -1227,28 +1221,28 @@
         <v>10020</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="11">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2">
         <v>1026</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="9">
         <v>1.4</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -1257,31 +1251,31 @@
         <v>10030</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1028</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="11">
-        <v>1028</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="H9" s="9">
         <v>5.3</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1289,28 +1283,28 @@
         <v>10030</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="11">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2">
         <v>1032</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="H10" s="9">
         <v>2.5</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -1319,28 +1313,28 @@
         <v>10040</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1042</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="11">
-        <v>1042</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H11" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="7"/>
     </row>
@@ -1349,31 +1343,31 @@
         <v>10040</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="11">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2">
         <v>1046</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H12" s="9">
         <v>0.5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1381,28 +1375,28 @@
         <v>10040</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2">
         <v>1047</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H13" s="9">
         <v>0.6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="7"/>
     </row>
@@ -1411,28 +1405,28 @@
         <v>10050</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="11">
-        <v>1048</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H14" s="9">
         <v>0.5</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="7"/>
     </row>
@@ -1441,28 +1435,28 @@
         <v>10050</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="11">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2">
         <v>1050</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="H15" s="9">
         <v>1.4</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="7"/>
     </row>
@@ -1471,31 +1465,31 @@
         <v>10060</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1054</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="11">
-        <v>1054</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="H16" s="9">
         <v>3.6</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,28 +1497,28 @@
         <v>10070</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="11">
-        <v>1057</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="H17" s="9">
         <v>2.1</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="7"/>
     </row>
@@ -1533,28 +1527,28 @@
         <v>10070</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="11">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2">
         <v>1060</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H18" s="9">
         <v>3</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="7"/>
     </row>
@@ -1563,28 +1557,28 @@
         <v>10010</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="11">
-        <v>1009</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="9">
         <v>2</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="7"/>
     </row>
@@ -1593,28 +1587,28 @@
         <v>10010</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="11">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2">
         <v>1012</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H20" s="9">
         <v>1.5</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="7"/>
     </row>
@@ -1623,28 +1617,28 @@
         <v>10010</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="11">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2">
         <v>1017</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="9">
         <v>3.5</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -1653,31 +1647,31 @@
         <v>10010</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="11">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2">
         <v>1018</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="9">
         <v>2</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1685,28 +1679,28 @@
         <v>10010</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="11">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2">
         <v>1021</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="H23" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -1715,28 +1709,28 @@
         <v>10020</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="11">
-        <v>1023</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H24" s="9">
         <v>3.8</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -1745,28 +1739,28 @@
         <v>10020</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="11">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2">
         <v>1026</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="9">
         <v>1.4</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="7"/>
     </row>
@@ -1775,31 +1769,31 @@
         <v>10030</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1028</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="11">
-        <v>1028</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="H26" s="9">
         <v>5.3</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,28 +1801,28 @@
         <v>10030</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="11">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2">
         <v>1032</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="H27" s="9">
         <v>2.5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="7"/>
     </row>
@@ -1837,28 +1831,28 @@
         <v>10040</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1042</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="11">
-        <v>1042</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H28" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="7"/>
     </row>
@@ -1867,31 +1861,31 @@
         <v>10040</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="11">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2">
         <v>1046</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H29" s="9">
         <v>0.5</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1899,28 +1893,28 @@
         <v>10040</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="11">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
         <v>1047</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H30" s="9">
         <v>0.6</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="7"/>
     </row>
@@ -1929,28 +1923,28 @@
         <v>10050</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="11">
-        <v>1048</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H31" s="9">
         <v>0.5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J31" s="7"/>
     </row>
@@ -1959,28 +1953,28 @@
         <v>10050</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="11">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2">
         <v>1050</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="H32" s="9">
         <v>1.4</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="7"/>
     </row>
@@ -1989,31 +1983,31 @@
         <v>10060</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1054</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="11">
-        <v>1054</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="H33" s="9">
         <v>3.6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2021,28 +2015,28 @@
         <v>10070</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1057</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="11">
-        <v>1057</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="H34" s="9">
         <v>2.1</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J34" s="7"/>
     </row>
@@ -2051,28 +2045,28 @@
         <v>10070</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="11">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2">
         <v>1060</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H35" s="9">
         <v>3</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J35" s="7"/>
     </row>
@@ -2081,28 +2075,28 @@
         <v>10010</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="11">
-        <v>1009</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H36" s="9">
         <v>3.5</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" s="7"/>
     </row>
@@ -2111,31 +2105,31 @@
         <v>10010</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="11">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2">
         <v>1012</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H37" s="9">
         <v>2</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2143,28 +2137,28 @@
         <v>10010</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="11">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2">
         <v>1017</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="H38" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38" s="7"/>
     </row>
@@ -2173,28 +2167,28 @@
         <v>10010</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="11">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2">
         <v>1018</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H39" s="9">
         <v>3.8</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J39" s="7"/>
     </row>
@@ -2203,28 +2197,28 @@
         <v>10010</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="11">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2">
         <v>1021</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H40" s="9">
         <v>1.4</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40" s="7"/>
     </row>
@@ -2233,31 +2227,31 @@
         <v>10020</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="11">
-        <v>1023</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="H41" s="9">
         <v>5.3</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2265,28 +2259,28 @@
         <v>10020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="11">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2">
         <v>1026</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="H42" s="9">
         <v>2.5</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -2295,28 +2289,28 @@
         <v>10030</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1028</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="11">
-        <v>1028</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H43" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J43" s="7"/>
     </row>
@@ -2325,31 +2319,31 @@
         <v>10030</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="11">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2">
         <v>1032</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H44" s="9">
         <v>0.5</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,28 +2351,28 @@
         <v>10040</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1042</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="11">
-        <v>1042</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H45" s="9">
         <v>0.6</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J45" s="7"/>
     </row>
@@ -2387,28 +2381,28 @@
         <v>10040</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="11">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2">
         <v>1046</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H46" s="9">
         <v>0.5</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J46" s="7"/>
     </row>
@@ -2417,28 +2411,28 @@
         <v>10040</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="11">
+        <v>88</v>
+      </c>
+      <c r="C47" s="2">
         <v>1047</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="H47" s="9">
         <v>2.4</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J47" s="7"/>
     </row>
@@ -2447,28 +2441,28 @@
         <v>10050</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="11">
-        <v>1048</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E48" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="H48" s="9">
         <v>1.4</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J48" s="7"/>
     </row>
@@ -2477,31 +2471,31 @@
         <v>10050</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="11" t="e">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2" t="e">
         <v>#N/A</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="H49" s="9">
         <v>3.6</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2509,28 +2503,28 @@
         <v>10050</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="11">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2">
         <v>1050</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="H50" s="9">
         <v>2.1</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J50" s="7"/>
     </row>
@@ -2539,28 +2533,28 @@
         <v>10060</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1054</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="11">
-        <v>1054</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H51" s="9">
         <v>3</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J51" s="7"/>
     </row>
@@ -2569,28 +2563,28 @@
         <v>10070</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1057</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="11">
-        <v>1057</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H52" s="9">
         <v>2</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" s="7"/>
     </row>
@@ -2599,28 +2593,28 @@
         <v>10070</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="11">
+        <v>98</v>
+      </c>
+      <c r="C53" s="2">
         <v>1060</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H53" s="9">
         <v>1.5</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J53" s="7"/>
     </row>
@@ -2629,28 +2623,28 @@
         <v>10010</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="11">
-        <v>1009</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H54" s="9">
         <v>3.5</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J54" s="7"/>
     </row>
@@ -2659,31 +2653,31 @@
         <v>10010</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="11">
+        <v>76</v>
+      </c>
+      <c r="C55" s="2">
         <v>1012</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H55" s="9">
         <v>2</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2691,28 +2685,28 @@
         <v>10010</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="11">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2">
         <v>1017</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="H56" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J56" s="7"/>
     </row>
@@ -2721,28 +2715,28 @@
         <v>10010</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="11">
+        <v>76</v>
+      </c>
+      <c r="C57" s="2">
         <v>1018</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H57" s="9">
         <v>3.8</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J57" s="7"/>
     </row>
@@ -2751,28 +2745,28 @@
         <v>10010</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="11">
+        <v>76</v>
+      </c>
+      <c r="C58" s="2">
         <v>1021</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="H58" s="9">
         <v>1.4</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J58" s="7"/>
     </row>
@@ -2781,31 +2775,31 @@
         <v>10020</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="11">
-        <v>1023</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="H59" s="9">
         <v>5.3</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,28 +2807,28 @@
         <v>10020</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="11">
+        <v>82</v>
+      </c>
+      <c r="C60" s="2">
         <v>1026</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="H60" s="9">
         <v>2.5</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J60" s="7"/>
     </row>
@@ -2843,28 +2837,28 @@
         <v>10030</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1028</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="11">
-        <v>1028</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E61" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H61" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J61" s="7"/>
     </row>
@@ -2873,31 +2867,31 @@
         <v>10030</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="11">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2">
         <v>1032</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H62" s="9">
         <v>0.5</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2905,28 +2899,28 @@
         <v>10040</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1042</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="11">
-        <v>1042</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H63" s="9">
         <v>0.6</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J63" s="7"/>
     </row>
@@ -2935,28 +2929,28 @@
         <v>10040</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="11">
+        <v>88</v>
+      </c>
+      <c r="C64" s="2">
         <v>1046</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H64" s="9">
         <v>0.5</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J64" s="7"/>
     </row>
@@ -2965,28 +2959,28 @@
         <v>10040</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="11">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2">
         <v>1047</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="H65" s="9">
         <v>2.4</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J65" s="7"/>
     </row>
@@ -2995,28 +2989,28 @@
         <v>10050</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="11">
-        <v>1048</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="H66" s="9">
         <v>1.4</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J66" s="7"/>
     </row>
@@ -3025,28 +3019,28 @@
         <v>10050</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="11">
+        <v>92</v>
+      </c>
+      <c r="C67" s="2">
         <v>1050</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="H67" s="9">
         <v>2.1</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J67" s="7"/>
     </row>
@@ -3055,28 +3049,28 @@
         <v>10060</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1054</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="11">
-        <v>1054</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H68" s="9">
         <v>3</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J68" s="7"/>
     </row>
@@ -3085,28 +3079,28 @@
         <v>10070</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1057</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="11">
-        <v>1057</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H69" s="9">
         <v>2</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J69" s="7"/>
     </row>
@@ -3115,28 +3109,28 @@
         <v>10070</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="11">
+        <v>98</v>
+      </c>
+      <c r="C70" s="2">
         <v>1060</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H70" s="9">
         <v>1.5</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J70" s="7"/>
     </row>
@@ -3165,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3179,13 +3173,13 @@
         <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>10010</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,13 +3187,13 @@
         <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>10010</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3207,13 +3201,13 @@
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>10010</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3221,13 +3215,13 @@
         <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>10010</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3235,13 +3229,13 @@
         <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>10010</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,13 +3243,13 @@
         <v>1006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>10010</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,13 +3257,13 @@
         <v>1007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>10010</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3277,13 +3271,13 @@
         <v>1008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>10010</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3291,13 +3285,13 @@
         <v>1009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>10010</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3305,13 +3299,13 @@
         <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>10010</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3319,13 +3313,13 @@
         <v>1011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>10010</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3333,13 +3327,13 @@
         <v>1012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>10010</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3347,13 +3341,13 @@
         <v>1013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>10020</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3361,13 +3355,13 @@
         <v>1014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>10020</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3375,13 +3369,13 @@
         <v>1015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>10020</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3389,13 +3383,13 @@
         <v>1016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>10020</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3403,13 +3397,13 @@
         <v>1017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>10030</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3417,13 +3411,13 @@
         <v>1018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>10030</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3431,13 +3425,13 @@
         <v>1019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>10030</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3445,13 +3439,13 @@
         <v>1020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>10030</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3459,13 +3453,13 @@
         <v>1021</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <v>10030</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3473,13 +3467,13 @@
         <v>1022</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2">
         <v>10040</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3487,13 +3481,13 @@
         <v>1023</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <v>10040</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3501,13 +3495,13 @@
         <v>1024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>10040</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3515,13 +3509,13 @@
         <v>1025</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>10040</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3529,13 +3523,13 @@
         <v>1026</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2">
         <v>10040</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,13 +3537,13 @@
         <v>1027</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2">
         <v>10040</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3557,13 +3551,13 @@
         <v>1028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>10050</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3571,13 +3565,13 @@
         <v>1029</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>10050</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3585,13 +3579,13 @@
         <v>1030</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>10050</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3599,13 +3593,13 @@
         <v>1031</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>10050</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3613,13 +3607,13 @@
         <v>1032</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2">
         <v>10060</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3627,13 +3621,13 @@
         <v>1033</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2">
         <v>10060</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3641,13 +3635,13 @@
         <v>1034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2">
         <v>10060</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3655,13 +3649,13 @@
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2">
         <v>10070</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3669,13 +3663,13 @@
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2">
         <v>10070</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3683,13 +3677,13 @@
         <v>1037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2">
         <v>10070</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3697,13 +3691,13 @@
         <v>1038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2">
         <v>10070</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3727,13 +3721,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3741,7 +3735,7 @@
         <v>10010</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -3752,7 +3746,7 @@
         <v>10020</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -3763,7 +3757,7 @@
         <v>10030</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -3774,7 +3768,7 @@
         <v>10040</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -3785,7 +3779,7 @@
         <v>10050</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -3796,7 +3790,7 @@
         <v>10060</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -3807,7 +3801,7 @@
         <v>10070</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
